--- a/data/BOC/FTD/FTDE/UPPCO_A_historical.xlsx
+++ b/data/BOC/FTD/FTDE/UPPCO_A_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UPPCO" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,53 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>UPPQIMCSB</t>
-  </si>
-  <si>
-    <t>Quantity,  Census Basis</t>
-  </si>
-  <si>
-    <t>UPPVIMCSB</t>
-  </si>
-  <si>
-    <t>Value,  Census Basis</t>
-  </si>
-  <si>
-    <t>UCOQIMCSB</t>
-  </si>
-  <si>
-    <t>UCOTIMCSB</t>
-  </si>
-  <si>
-    <t>Thousands of barrels per day,  Census Basis</t>
-  </si>
-  <si>
-    <t>UCOVIMCSB</t>
-  </si>
-  <si>
-    <t>UCOUIMCSB</t>
-  </si>
-  <si>
-    <t>Unit Price,  Census Basis</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,9 +366,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
       </c>
       <c r="B1" s="1" t="n">
         <v>2000</v>
@@ -480,19 +435,27 @@
       <c r="V1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>3</v>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>UPPQIMCSB</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>4314825</v>
@@ -557,19 +520,25 @@
       <c r="V2" t="n">
         <v>2664173</v>
       </c>
-      <c r="W2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" t="s">
-        <v>5</v>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>UPPQIMCSB</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Quantity,  Census Basis</t>
+        </is>
       </c>
       <c r="Y2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>UPPVIMCSB</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>117057022</v>
@@ -634,19 +603,25 @@
       <c r="V3" t="n">
         <v>112534571</v>
       </c>
-      <c r="W3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" t="s">
-        <v>7</v>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>UPPVIMCSB</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Value,  Census Basis</t>
+        </is>
       </c>
       <c r="Y3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>UCOQIMCSB</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>3399239</v>
@@ -711,19 +686,25 @@
       <c r="V4" t="n">
         <v>1169552</v>
       </c>
-      <c r="W4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X4" t="s">
-        <v>5</v>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>UCOQIMCSB</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Quantity,  Census Basis</t>
+        </is>
       </c>
       <c r="Y4" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>UCOTIMCSB</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>9288</v>
@@ -788,19 +769,25 @@
       <c r="V5" t="n">
         <v>3195</v>
       </c>
-      <c r="W5" t="s">
-        <v>9</v>
-      </c>
-      <c r="X5" t="s">
-        <v>10</v>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>UCOTIMCSB</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Thousands of barrels per day,  Census Basis</t>
+        </is>
       </c>
       <c r="Y5" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>UCOVIMCSB</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>89876433</v>
@@ -865,19 +852,25 @@
       <c r="V6" t="n">
         <v>49463636</v>
       </c>
-      <c r="W6" t="s">
-        <v>11</v>
-      </c>
-      <c r="X6" t="s">
-        <v>7</v>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>UCOVIMCSB</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Value,  Census Basis</t>
+        </is>
       </c>
       <c r="Y6" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>UCOUIMCSB</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>26.44</v>
@@ -942,11 +935,15 @@
       <c r="V7" t="n">
         <v>42.29</v>
       </c>
-      <c r="W7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X7" t="s">
-        <v>13</v>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>UCOUIMCSB</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Unit Price,  Census Basis</t>
+        </is>
       </c>
       <c r="Y7" t="n">
         <v>8</v>

--- a/data/BOC/FTD/FTDE/UPPCO_A_historical.xlsx
+++ b/data/BOC/FTD/FTDE/UPPCO_A_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,15 +437,25 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>2021.0</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2021.0</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>order</t>
         </is>
@@ -520,17 +530,23 @@
       <c r="V2" t="n">
         <v>2664173</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" t="n">
+        <v>2662549</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2662549</v>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>UPPQIMCSB</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>Quantity,  Census Basis</t>
         </is>
       </c>
-      <c r="Y2" t="n">
+      <c r="AA2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -603,17 +619,23 @@
       <c r="V3" t="n">
         <v>112534571</v>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="W3" t="n">
+        <v>168354613</v>
+      </c>
+      <c r="X3" t="n">
+        <v>168354613</v>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>UPPVIMCSB</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>Value,  Census Basis</t>
         </is>
       </c>
-      <c r="Y3" t="n">
+      <c r="AA3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -686,17 +708,23 @@
       <c r="V4" t="n">
         <v>1169552</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W4" t="n">
+        <v>1085984</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1085984</v>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>UCOQIMCSB</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>Quantity,  Census Basis</t>
         </is>
       </c>
-      <c r="Y4" t="n">
+      <c r="AA4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -769,17 +797,23 @@
       <c r="V5" t="n">
         <v>3195</v>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="W5" t="n">
+        <v>2975</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2975</v>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>UCOTIMCSB</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>Thousands of barrels per day,  Census Basis</t>
         </is>
       </c>
-      <c r="Y5" t="n">
+      <c r="AA5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -852,17 +886,23 @@
       <c r="V6" t="n">
         <v>49463636</v>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="W6" t="n">
+        <v>69317354</v>
+      </c>
+      <c r="X6" t="n">
+        <v>69317354</v>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>UCOVIMCSB</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>Value,  Census Basis</t>
         </is>
       </c>
-      <c r="Y6" t="n">
+      <c r="AA6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -935,17 +975,23 @@
       <c r="V7" t="n">
         <v>42.29</v>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="W7" t="n">
+        <v>63.83</v>
+      </c>
+      <c r="X7" t="n">
+        <v>63.83</v>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>UCOUIMCSB</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>Unit Price,  Census Basis</t>
         </is>
       </c>
-      <c r="Y7" t="n">
+      <c r="AA7" t="n">
         <v>8</v>
       </c>
     </row>

--- a/data/BOC/FTD/FTDE/UPPCO_A_historical.xlsx
+++ b/data/BOC/FTD/FTDE/UPPCO_A_historical.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>2021.0</t>
+          <t>2021.0.1</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">

--- a/data/BOC/FTD/FTDE/UPPCO_A_historical.xlsx
+++ b/data/BOC/FTD/FTDE/UPPCO_A_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,27 +435,20 @@
       <c r="V1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>2021.0</t>
-        </is>
+      <c r="W1" s="1" t="n">
+        <v>2021</v>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>2021.0.1</t>
+          <t>Index</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Index</t>
+          <t>Label</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Label</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>order</t>
         </is>
@@ -533,20 +526,17 @@
       <c r="W2" t="n">
         <v>2662549</v>
       </c>
-      <c r="X2" t="n">
-        <v>2662549</v>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>UPPQIMCSB</t>
+        </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>UPPQIMCSB</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
           <t>Quantity,  Census Basis</t>
         </is>
       </c>
-      <c r="AA2" t="n">
+      <c r="Z2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -622,20 +612,17 @@
       <c r="W3" t="n">
         <v>168354613</v>
       </c>
-      <c r="X3" t="n">
-        <v>168354613</v>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>UPPVIMCSB</t>
+        </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>UPPVIMCSB</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
           <t>Value,  Census Basis</t>
         </is>
       </c>
-      <c r="AA3" t="n">
+      <c r="Z3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -711,20 +698,17 @@
       <c r="W4" t="n">
         <v>1085984</v>
       </c>
-      <c r="X4" t="n">
-        <v>1085984</v>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>UCOQIMCSB</t>
+        </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>UCOQIMCSB</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
           <t>Quantity,  Census Basis</t>
         </is>
       </c>
-      <c r="AA4" t="n">
+      <c r="Z4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -800,20 +784,17 @@
       <c r="W5" t="n">
         <v>2975</v>
       </c>
-      <c r="X5" t="n">
-        <v>2975</v>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>UCOTIMCSB</t>
+        </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>UCOTIMCSB</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
           <t>Thousands of barrels per day,  Census Basis</t>
         </is>
       </c>
-      <c r="AA5" t="n">
+      <c r="Z5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -889,20 +870,17 @@
       <c r="W6" t="n">
         <v>69317354</v>
       </c>
-      <c r="X6" t="n">
-        <v>69317354</v>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>UCOVIMCSB</t>
+        </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>UCOVIMCSB</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
           <t>Value,  Census Basis</t>
         </is>
       </c>
-      <c r="AA6" t="n">
+      <c r="Z6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -978,20 +956,17 @@
       <c r="W7" t="n">
         <v>63.83</v>
       </c>
-      <c r="X7" t="n">
-        <v>63.83</v>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>UCOUIMCSB</t>
+        </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>UCOUIMCSB</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
           <t>Unit Price,  Census Basis</t>
         </is>
       </c>
-      <c r="AA7" t="n">
+      <c r="Z7" t="n">
         <v>8</v>
       </c>
     </row>
